--- a/performance.xlsx
+++ b/performance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508035C6-00E5-4456-A96A-C6B90E0026F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14352" yWindow="4368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+  <si>
+    <t>Tiny model</t>
+  </si>
+  <si>
+    <t>Full model</t>
+  </si>
+  <si>
+    <t>dog1</t>
+  </si>
+  <si>
+    <t>dog2</t>
+  </si>
+  <si>
+    <t>eagle1</t>
+  </si>
+  <si>
+    <t>eagle2</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>horses</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>scream</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +369,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B12:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/performance.xlsx
+++ b/performance.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508035C6-00E5-4456-A96A-C6B90E0026F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E5B4C-F6E9-4E4B-830C-A33896E9EFC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14352" yWindow="4368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>Tiny model</t>
-  </si>
-  <si>
-    <t>Full model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>dog1</t>
   </si>
@@ -50,6 +44,69 @@
   </si>
   <si>
     <t>scream</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car </t>
+  </si>
+  <si>
+    <t xml:space="preserve">truck </t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>time(s)</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>Tiny model(24 layers)</t>
+  </si>
+  <si>
+    <t>person1</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>person2</t>
+  </si>
+  <si>
+    <t>Full Model(107 layers)</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>handbag</t>
+  </si>
+  <si>
+    <t>bed</t>
   </si>
 </sst>
 </file>
@@ -85,10 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,97 +436,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:I13"/>
+  <dimension ref="C4:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.0232659999999996</v>
+      </c>
+      <c r="F11" s="2">
+        <v>46.311765000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.8775300000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45.056376</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.0108220000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>46.913888</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.9247390000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>50.718381000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.9724719999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>46.367212000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.9323950000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>49.033776000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E33" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3.928356</v>
+      </c>
+      <c r="F36" s="2">
+        <v>51.211255000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3.9263409999999999</v>
+      </c>
+      <c r="F41" s="2">
+        <v>46.532781</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
+      <c r="D42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3.9477720000000001</v>
+      </c>
+      <c r="F43" s="2">
+        <v>46.836553000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B12:I12"/>
+  <mergeCells count="4">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38938803-1B5B-45C2-867C-D4A1A9883ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D253307-1A1A-4FA7-8931-7E8251664290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>dog1</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t xml:space="preserve">Full Model with fix-point </t>
+  </si>
+  <si>
+    <t>mAp</t>
+  </si>
+  <si>
+    <t>100%(3 classes)</t>
+  </si>
+  <si>
+    <t>100%(2 classes)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +160,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:G43"/>
+  <dimension ref="C4:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +484,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -489,7 +501,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -504,7 +516,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -519,7 +531,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -534,7 +546,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
@@ -549,7 +561,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -564,7 +576,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -578,165 +590,171 @@
         <v>46.172485999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>0.24</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>3.8775300000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>45.056376</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
+      <c r="G14" s="4">
+        <v>46.282510000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>0.76</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="1" t="s">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>4.0108220000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>46.913888</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>3.9247390000000002</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>50.718381000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F19" s="3">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.96</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>3.9724719999999998</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>46.367212000000002</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="3">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="F24" s="3">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
@@ -744,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="3">
-        <v>0.32</v>
+        <v>0.71</v>
       </c>
       <c r="F25" s="3">
         <v>0.99</v>
@@ -755,21 +773,21 @@
         <v>18</v>
       </c>
       <c r="E26" s="3">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="3">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
@@ -777,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="3">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -788,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="3">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -796,154 +814,151 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3.9323950000000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>49.033776000000003</v>
+        <v>18</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3">
-        <v>0.89</v>
+        <v>0.51</v>
       </c>
       <c r="F31" s="3">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.9323950000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>49.033776000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E33" s="3">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E35" s="3">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1">
-        <v>3.928356</v>
-      </c>
-      <c r="F36" s="1">
-        <v>51.211255000000001</v>
+        <v>18</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E37" s="3">
-        <v>0.35</v>
+        <v>0.83</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.95</v>
+        <v>13</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.928356</v>
+      </c>
+      <c r="F38" s="1">
+        <v>51.211255000000001</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F39" s="3">
-        <v>0.72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>0.26</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="1">
-        <v>3.9263409999999999</v>
-      </c>
-      <c r="F41" s="1">
-        <v>46.532781</v>
+        <v>25</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.72</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
@@ -951,18 +966,43 @@
         <v>13</v>
       </c>
       <c r="E43" s="1">
+        <v>3.9263409999999999</v>
+      </c>
+      <c r="F43" s="1">
+        <v>46.532781</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1">
         <v>3.9477720000000001</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F45" s="1">
         <v>46.836553000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D253307-1A1A-4FA7-8931-7E8251664290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B47585-AFC3-496F-B83D-B60F284368C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>dog1</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>mAp</t>
-  </si>
-  <si>
-    <t>100%(3 classes)</t>
   </si>
   <si>
     <t>100%(2 classes)</t>
@@ -151,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +157,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:G45"/>
+  <dimension ref="C4:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +484,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -501,7 +501,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -531,7 +531,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -546,7 +546,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,7 +561,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -576,7 +576,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -590,292 +590,304 @@
         <v>46.172485999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.8775300000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45.056376</v>
+      </c>
+      <c r="G13" s="4">
+        <v>46.282510000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.0108220000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>46.913888</v>
+      </c>
+      <c r="G15" s="5">
+        <v>46.175868000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
-      <c r="D14" s="1" t="s">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1">
-        <v>3.8775300000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45.056376</v>
-      </c>
-      <c r="G14" s="4">
-        <v>46.282510000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4.0108220000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>46.913888</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="1">
+        <v>3.9247390000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50.718381000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>46.288598</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3.9247390000000002</v>
-      </c>
-      <c r="F18" s="1">
-        <v>50.718381000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3">
         <v>0.53</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E21" s="1">
         <v>3.9724719999999998</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F21" s="1">
         <v>46.367212000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="4" t="s">
+    <row r="22" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="3">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="F24" s="3">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="3">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="F25" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="F26" s="3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="3">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.9323950000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>49.033776000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="F32" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3.9323950000000001</v>
-      </c>
-      <c r="F32" s="1">
-        <v>49.033776000000003</v>
-      </c>
-    </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="F33" s="3">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3">
-        <v>0.81</v>
+        <v>0.98</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E35" s="3">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -883,126 +895,115 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.928356</v>
+      </c>
+      <c r="F37" s="1">
+        <v>51.211255000000001</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3.928356</v>
-      </c>
-      <c r="F38" s="1">
-        <v>51.211255000000001</v>
+        <v>6</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>0.95</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.72</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.26</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.9263409999999999</v>
+      </c>
+      <c r="F42" s="1">
+        <v>46.532781</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="1">
-        <v>3.9263409999999999</v>
-      </c>
-      <c r="F43" s="1">
-        <v>46.532781</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="E44" s="1">
         <v>3.9477720000000001</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F44" s="1">
         <v>46.836553000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B47585-AFC3-496F-B83D-B60F284368C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54E170-F6A5-495A-B282-3E5C7C7E4F6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>dog1</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Full Model with fix-point </t>
-  </si>
-  <si>
-    <t>mAp</t>
-  </si>
-  <si>
-    <t>100%(2 classes)</t>
   </si>
 </sst>
 </file>
@@ -148,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,6 +151,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +481,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -501,7 +498,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -516,7 +513,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -531,7 +528,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -546,7 +543,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,7 +558,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -576,7 +573,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -591,7 +588,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -608,7 +605,7 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -623,7 +620,7 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -640,7 +637,7 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -655,7 +652,7 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -672,7 +669,7 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
@@ -699,6 +696,9 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
+      <c r="G18" s="3">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
@@ -710,6 +710,9 @@
       <c r="F19" s="3">
         <v>0.62</v>
       </c>
+      <c r="G19" s="3">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
@@ -721,6 +724,9 @@
       <c r="F20" s="3">
         <v>0.96</v>
       </c>
+      <c r="G20" s="3">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
@@ -732,30 +738,39 @@
       <c r="F21" s="1">
         <v>46.367212000000002</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>30</v>
+      <c r="G21" s="6">
+        <v>46.227164000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.84</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="3">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="F23" s="3">
-        <v>0.88</v>
+        <v>0.99</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
@@ -763,10 +778,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="3">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="F24" s="3">
-        <v>0.99</v>
+        <v>0.96</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.97</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
@@ -774,10 +792,13 @@
         <v>18</v>
       </c>
       <c r="E25" s="3">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="F25" s="3">
-        <v>0.96</v>
+        <v>0.99</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.98</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
@@ -785,184 +806,232 @@
         <v>18</v>
       </c>
       <c r="E26" s="3">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="F26" s="3">
-        <v>0.99</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="3">
-        <v>0.39</v>
+        <v>0.7</v>
       </c>
       <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.9323950000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>49.033776000000003</v>
+      </c>
+      <c r="G30" s="6">
+        <v>46.235506999999998</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3.9323950000000001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>49.033776000000003</v>
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.99</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="F32" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.928356</v>
+      </c>
+      <c r="F36" s="1">
+        <v>51.211255000000001</v>
+      </c>
+      <c r="G36" s="6">
+        <v>46.131405000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="1" t="s">
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3.928356</v>
-      </c>
-      <c r="F37" s="1">
-        <v>51.211255000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,8 +1041,11 @@
       <c r="F42" s="1">
         <v>46.532781</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="6">
+        <v>46.448174999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,8 +1058,11 @@
       <c r="F43" s="3">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,6 +1071,9 @@
       </c>
       <c r="F44" s="1">
         <v>46.836553000000002</v>
+      </c>
+      <c r="G44" s="6">
+        <v>46.158969999999997</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC9AC5B-A23A-49B5-A1D1-191AFD42A82B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BD4AF3-74CD-49BC-9FCC-1D5276BB9CB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>dog1</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>35%(person)</t>
+  </si>
+  <si>
+    <t>26%(boat)</t>
+  </si>
+  <si>
+    <t>39%(dog)</t>
+  </si>
+  <si>
+    <t>66%(person)</t>
+  </si>
+  <si>
+    <t>44%(bed)</t>
+  </si>
+  <si>
+    <t>42%(bench)</t>
+  </si>
+  <si>
+    <t>25%(aeroplane)</t>
+  </si>
+  <si>
+    <t>28%(person)</t>
   </si>
 </sst>
 </file>
@@ -140,15 +161,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,11 +183,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,11 +219,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -198,6 +258,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1066799</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB201430-D14E-4869-BEA0-BB9A947B2C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="21111"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9768840" y="4046220"/>
+          <a:ext cx="899159" cy="1424940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141077</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1015207</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB49CFA-0BA4-46D0-9B01-C6E58DD2C3C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9742277" y="6400800"/>
+          <a:ext cx="874130" cy="933281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:J37"/>
+  <dimension ref="C4:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +628,7 @@
     <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -484,777 +636,876 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="3:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="11">
         <v>0.81</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="12">
         <v>0.79</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="13">
         <v>0.89</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="11">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <v>0.38</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="12">
         <v>0.35</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="11">
         <v>0.31</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <v>0.99</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="11">
         <v>0.99</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
         <v>0.51</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="11">
         <v>0.71</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="12">
         <v>0.67</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="13">
         <v>0.79</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="J9" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="11">
         <v>0.42</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="12">
         <v>0.43</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="11">
         <v>0.53</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="11">
         <v>0.93</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="11">
         <v>0.88</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="J10" s="11">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="10"/>
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="11">
         <v>0.62</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="12">
         <v>0.64</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="13">
         <v>0.77</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="11">
         <v>0.4</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="12">
         <v>0.34</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="11">
         <v>0.5</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="11">
         <v>0.24</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
         <v>0.34</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="11">
         <v>0.99</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="11">
         <v>0.99</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="5" t="s">
+      <c r="J13" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="3:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16" s="11">
         <v>0.76</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F16" s="12">
         <v>0.75</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G16" s="13">
         <v>0.9</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H16" s="11">
         <v>0.99</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I16" s="11">
         <v>0.99</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
+      <c r="J16" s="11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I18" s="11">
         <v>1</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="5" t="s">
+      <c r="J18" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E20" s="11">
         <v>0.53</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F20" s="12">
         <v>0.5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G20" s="13">
         <v>0.7</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H20" s="11">
         <v>1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I20" s="11">
         <v>0.99</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="J20" s="11">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="10"/>
+      <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
         <v>0.62</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I21" s="11">
         <v>0.52</v>
       </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="J21" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="10"/>
+      <c r="D22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E22" s="11">
         <v>0.53</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F22" s="12">
         <v>0.45</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G22" s="13">
         <v>0.61</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H22" s="11">
         <v>0.96</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I22" s="11">
         <v>0.96</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+      <c r="J22" s="11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E23" s="11">
         <v>0.31</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F23" s="12">
         <v>0.33</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G23" s="11">
         <v>0.47</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H23" s="11">
         <v>0.88</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I23" s="11">
         <v>0.84</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="10"/>
+      <c r="D24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E24" s="11">
         <v>0.71</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F24" s="12">
         <v>0.69</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G24" s="11">
         <v>0.85</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H24" s="11">
         <v>0.99</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I24" s="11">
         <v>0.99</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="10"/>
+      <c r="D25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E25" s="11">
         <v>0.54</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F25" s="12">
         <v>0.51</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H25" s="11">
         <v>0.96</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I25" s="11">
         <v>0.97</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="10"/>
+      <c r="D26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E26" s="11">
         <v>0.32</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F26" s="12">
         <v>0.32</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G26" s="11">
         <v>0.65</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H26" s="11">
         <v>0.99</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I26" s="11">
         <v>0.98</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="10"/>
+      <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E27" s="11">
         <v>0.68</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F27" s="12">
         <v>0.72</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G27" s="11">
         <v>0.48</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="10"/>
+      <c r="D28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E28" s="11">
         <v>0.39</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F28" s="12">
         <v>0.37</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G28" s="11">
         <v>0.54</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="10"/>
+      <c r="D29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E29" s="11">
         <v>0.7</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F29" s="12">
         <v>0.72</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G29" s="11">
         <v>0.85</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="10"/>
+      <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E30" s="11">
         <v>0.51</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F30" s="12">
         <v>0.48</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G30" s="11">
         <v>0.59</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E31" s="11">
         <v>0.89</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F31" s="12">
         <v>0.87</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G31" s="13">
         <v>0.93</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H31" s="11">
         <v>0.99</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I31" s="11">
         <v>0.99</v>
       </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="J31" s="11">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="10"/>
+      <c r="D32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E32" s="11">
         <v>0.81</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F32" s="12">
         <v>0.82</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G32" s="13">
         <v>0.85</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="10"/>
+      <c r="D33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E33" s="11">
         <v>0.98</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F33" s="12">
         <v>0.98</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G33" s="13">
         <v>0.99</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I33" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="J33" s="11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H34" s="11">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I34" s="11">
         <v>1</v>
       </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="J34" s="11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+      <c r="D35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E35" s="11">
         <v>0.83</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F35" s="12">
         <v>0.84</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G35" s="13">
         <v>0.93</v>
       </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="5" t="s">
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E36" s="11">
         <v>0.35</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F36" s="12">
         <v>0.32</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G36" s="11">
         <v>0.42</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H36" s="11">
         <v>1</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I36" s="11">
         <v>1</v>
       </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="10"/>
+      <c r="D37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
         <v>0.95</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I37" s="11">
         <v>0.93</v>
       </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="10"/>
+      <c r="D38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
         <v>0.72</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I38" s="11">
         <v>0.44</v>
       </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="10"/>
+      <c r="D39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
         <v>0.26</v>
       </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="3:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="10"/>
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="5" t="s">
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H41" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5"/>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C31:C35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>